--- a/va_facility_data_2025-02-20/Twin Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Twin%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Twin Falls VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Twin%20Falls%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rba65a45dbaf94f7c82cdcce5eb7dca3e"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R34f1f3c097374c58bd542f443a842803"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Ra2803b3138c042e9a3b77ba66f73d2e7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R33d7f379844e4b6480e9fc5c4d85b031"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6e01d077212a409cbb49e3a154e2cac5"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbe07bab68b13418cbacc1d6a76b3842e"/>
   </x:sheets>
 </x:workbook>
 </file>
